--- a/Examples/TestSynchronisation/Test_68Bus_IBR.xlsx
+++ b/Examples/TestSynchronisation/Test_68Bus_IBR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\TestSynchronisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A778EDE-A2A5-4E4E-B7F1-D9B6FB2A5840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8AD29-65A0-411F-BA3F-105A813C6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3297,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -6683,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6783,7 +6783,7 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/TestSynchronisation/Test_68Bus_IBR.xlsx
+++ b/Examples/TestSynchronisation/Test_68Bus_IBR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\TestSynchronisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8AD29-65A0-411F-BA3F-105A813C6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F5A9B6-4817-4D03-ADED-AB0103E589DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17595" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -6684,7 +6684,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6759,7 +6759,7 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -6775,7 +6775,7 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
